--- a/data/trans_dic/P78C1_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P78C1_2023-Estudios-trans_dic.xlsx
@@ -561,12 +561,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>32,25%</t>
+          <t>31,98%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>56,55%</t>
+          <t>56,01%</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>85,37%</t>
+          <t>84,89%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>91,96%</t>
+          <t>91,28%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>88,23%</t>
+          <t>87,62%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>61,43; 96,51</t>
+          <t>60,18; 96,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>74,21; 100,0</t>
+          <t>72,44; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>76,04; 96,26</t>
+          <t>75,01; 95,97</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>89,36%</t>
+          <t>88,93%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>89,0%</t>
+          <t>88,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>89,2%</t>
+          <t>88,73%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>71,38; 97,48</t>
+          <t>70,27; 97,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>74,23; 97,3</t>
+          <t>72,63; 97,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>78,39; 95,23</t>
+          <t>77,39; 94,98</t>
         </is>
       </c>
     </row>
